--- a/experiment/linear/ex9.1.8/Experimentos_Generador/ex9.1.9(Linear)__Strong_Stationarygenerator_alpha_non_zero.xlsx
+++ b/experiment/linear/ex9.1.8/Experimentos_Generador/ex9.1.9(Linear)__Strong_Stationarygenerator_alpha_non_zero.xlsx
@@ -66,58 +66,58 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>2.5 - 2x_1 + 1.199171155237376y_1 - 0.8310876822714931y_2</t>
-  </si>
-  <si>
-    <t>-1.7304935561380956</t>
+    <t>-13.522157494894248 - 2x_1 + 5.618111148463803y_1 - 0.747506399099227y_2</t>
+  </si>
+  <si>
+    <t>16.02215749489425</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.4508014206716149</t>
-  </si>
-  <si>
-    <t>0.5831828004311439</t>
-  </si>
-  <si>
-    <t>0.47191885491865415</t>
-  </si>
-  <si>
-    <t>-2 + x_1 - 3x_2 - 0.6174534921266391y_1 + 0.4763523848602994y_2</t>
-  </si>
-  <si>
-    <t>-2.3993666966765623</t>
+    <t>0.79</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>9.8</t>
+  </si>
+  <si>
+    <t>-3.0343920415696015 + x_1 - 3x_2 - 0.09592779602473588y_1 + 0.9947551815306963y_2</t>
+  </si>
+  <si>
+    <t>1.0343920415696015</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.22014013961262302</t>
-  </si>
-  <si>
-    <t>0.7742303910369777</t>
-  </si>
-  <si>
-    <t>0.3949240309241353</t>
-  </si>
-  <si>
-    <t>-2 + x_1 + x_2 + 0.18489437723259158y_1 + 0.15680452200070988y_2</t>
-  </si>
-  <si>
-    <t>2.1978636849726048</t>
+    <t>0.09</t>
+  </si>
+  <si>
+    <t>2.9</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>-35.66331209314874 + x_1 + x_2 + 4.936467928230815y_1 + 0.2698996457339049y_2</t>
+  </si>
+  <si>
+    <t>33.28331209314874</t>
   </si>
   <si>
     <t>J_Ne_L0_v</t>
   </si>
   <si>
-    <t>0.2577161402299323</t>
-  </si>
-  <si>
-    <t>0.6881017384222443</t>
-  </si>
-  <si>
-    <t>0.30345568632948805</t>
+    <t>0.54</t>
+  </si>
+  <si>
+    <t>2.3000000000000003</t>
+  </si>
+  <si>
+    <t>8.7</t>
   </si>
   <si>
     <t>x_1</t>
@@ -132,40 +132,40 @@
     <t>y_2</t>
   </si>
   <si>
-    <t>2.916744737742059</t>
-  </si>
-  <si>
-    <t>0.841164425538054</t>
-  </si>
-  <si>
-    <t>1.8056768518272297</t>
-  </si>
-  <si>
-    <t>0.6766069201123486</t>
+    <t>6.65</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>3.2</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>3.547687972301029</t>
-  </si>
-  <si>
-    <t>-0.7706198288179059</t>
+    <t>-3.095366986888819</t>
+  </si>
+  <si>
+    <t>-0.644743719745682</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>1.7040334714030658</t>
-  </si>
-  <si>
-    <t>0.6345894346886887</t>
-  </si>
-  <si>
-    <t>-0.8485108762494722</t>
-  </si>
-  <si>
-    <t>0.007972084567974061</t>
+    <t>-0.6000000000000001</t>
+  </si>
+  <si>
+    <t>5.399999999999999</t>
+  </si>
+  <si>
+    <t>-18.879230119462086</t>
+  </si>
+  <si>
+    <t>-2.5338008927980056</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -789,12 +789,12 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>0.9546337264306018</v>
+        <v>1.757141052833688</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>0.8096021490713063</v>
+        <v>0.09607106833453702</v>
       </c>
     </row>
   </sheetData>

--- a/experiment/linear/ex9.1.8/Experimentos_Generador/ex9.1.9(Linear)__Strong_Stationarygenerator_alpha_non_zero.xlsx
+++ b/experiment/linear/ex9.1.8/Experimentos_Generador/ex9.1.9(Linear)__Strong_Stationarygenerator_alpha_non_zero.xlsx
@@ -66,58 +66,58 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>-13.522157494894248 - 2x_1 + 5.618111148463803y_1 - 0.747506399099227y_2</t>
-  </si>
-  <si>
-    <t>16.02215749489425</t>
+    <t>-2.5315837802100924 - 2x_1 + 1.8678224246431105y_1 - 0.14263326722005942y_2</t>
+  </si>
+  <si>
+    <t>5.0315837802100924</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.79</t>
-  </si>
-  <si>
-    <t>1.3</t>
-  </si>
-  <si>
-    <t>9.8</t>
-  </si>
-  <si>
-    <t>-3.0343920415696015 + x_1 - 3x_2 - 0.09592779602473588y_1 + 0.9947551815306963y_2</t>
-  </si>
-  <si>
-    <t>1.0343920415696015</t>
+    <t>0.96</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>10.204623175446986 + x_1 - 3x_2 - 1.7499928618506757y_1 - 0.7289086105030773y_2</t>
+  </si>
+  <si>
+    <t>-12.204623175446986</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.09</t>
-  </si>
-  <si>
-    <t>2.9</t>
-  </si>
-  <si>
-    <t>1.5</t>
-  </si>
-  <si>
-    <t>-35.66331209314874 + x_1 + x_2 + 4.936467928230815y_1 + 0.2698996457339049y_2</t>
-  </si>
-  <si>
-    <t>33.28331209314874</t>
+    <t>0.9</t>
+  </si>
+  <si>
+    <t>8.5</t>
+  </si>
+  <si>
+    <t>5.699999999999999</t>
+  </si>
+  <si>
+    <t>-15.949985308161315 + x_1 + x_2 + 1.7884864957516098y_1 + 1.7669384656823133y_2</t>
+  </si>
+  <si>
+    <t>13.199985308161315</t>
   </si>
   <si>
     <t>J_Ne_L0_v</t>
   </si>
   <si>
-    <t>0.54</t>
-  </si>
-  <si>
-    <t>2.3000000000000003</t>
-  </si>
-  <si>
-    <t>8.7</t>
+    <t>0.28</t>
+  </si>
+  <si>
+    <t>7.6</t>
+  </si>
+  <si>
+    <t>8.8</t>
   </si>
   <si>
     <t>x_1</t>
@@ -132,40 +132,40 @@
     <t>y_2</t>
   </si>
   <si>
-    <t>6.65</t>
-  </si>
-  <si>
-    <t>2.1</t>
-  </si>
-  <si>
-    <t>5.2</t>
-  </si>
-  <si>
-    <t>3.2</t>
+    <t>2.55</t>
+  </si>
+  <si>
+    <t>1.25</t>
+  </si>
+  <si>
+    <t>4.25</t>
+  </si>
+  <si>
+    <t>2.15</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>-3.095366986888819</t>
-  </si>
-  <si>
-    <t>-0.644743719745682</t>
+    <t>3.2811078291977713</t>
+  </si>
+  <si>
+    <t>-0.7017970844070212</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>-0.6000000000000001</t>
-  </si>
-  <si>
-    <t>5.399999999999999</t>
-  </si>
-  <si>
-    <t>-18.879230119462086</t>
-  </si>
-  <si>
-    <t>-2.5338008927980056</t>
+    <t>-7.1</t>
+  </si>
+  <si>
+    <t>16.9</t>
+  </si>
+  <si>
+    <t>-5.754936528232378</t>
+  </si>
+  <si>
+    <t>-6.733792714639216</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -789,12 +789,12 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>1.757141052833688</v>
+        <v>2.4899999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>0.09607106833453702</v>
+        <v>2.46</v>
       </c>
     </row>
   </sheetData>

--- a/experiment/linear/ex9.1.8/Experimentos_Generador/ex9.1.9(Linear)__Strong_Stationarygenerator_alpha_non_zero.xlsx
+++ b/experiment/linear/ex9.1.8/Experimentos_Generador/ex9.1.9(Linear)__Strong_Stationarygenerator_alpha_non_zero.xlsx
@@ -66,10 +66,10 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>-2.5315837802100924 - 2x_1 + 1.8678224246431105y_1 - 0.14263326722005942y_2</t>
-  </si>
-  <si>
-    <t>5.0315837802100924</t>
+    <t>-6.89670276412982 - 2x_1 + 2.3621778802767475y_1 + 0.959624318994619y_2</t>
+  </si>
+  <si>
+    <t>9.39670276412982</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
@@ -78,43 +78,43 @@
     <t>0.96</t>
   </si>
   <si>
-    <t>3.5</t>
-  </si>
-  <si>
-    <t>4.3</t>
-  </si>
-  <si>
-    <t>10.204623175446986 + x_1 - 3x_2 - 1.7499928618506757y_1 - 0.7289086105030773y_2</t>
-  </si>
-  <si>
-    <t>-12.204623175446986</t>
+    <t>3.3000000000000003</t>
+  </si>
+  <si>
+    <t>6.4</t>
+  </si>
+  <si>
+    <t>2.653900531434875 + x_1 - 3x_2 - 0.468665396570741y_1 + 0.3257796049333199y_2</t>
+  </si>
+  <si>
+    <t>-4.653900531434875</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.9</t>
-  </si>
-  <si>
-    <t>8.5</t>
-  </si>
-  <si>
-    <t>5.699999999999999</t>
-  </si>
-  <si>
-    <t>-15.949985308161315 + x_1 + x_2 + 1.7884864957516098y_1 + 1.7669384656823133y_2</t>
-  </si>
-  <si>
-    <t>13.199985308161315</t>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>7.6</t>
+  </si>
+  <si>
+    <t>-20.705172632775163 + x_1 + x_2 + 1.6765266218790738y_1 + 2.411845315685685y_2</t>
+  </si>
+  <si>
+    <t>18.065172632775162</t>
   </si>
   <si>
     <t>J_Ne_L0_v</t>
   </si>
   <si>
-    <t>0.28</t>
-  </si>
-  <si>
-    <t>7.6</t>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>10.0</t>
   </si>
   <si>
     <t>8.8</t>
@@ -132,40 +132,40 @@
     <t>y_2</t>
   </si>
   <si>
-    <t>2.55</t>
-  </si>
-  <si>
-    <t>1.25</t>
-  </si>
-  <si>
-    <t>4.25</t>
-  </si>
-  <si>
-    <t>2.15</t>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>6.1000000000000005</t>
+  </si>
+  <si>
+    <t>1.55</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>3.2811078291977713</t>
-  </si>
-  <si>
-    <t>-0.7017970844070212</t>
+    <t>0.7191537150305818</t>
+  </si>
+  <si>
+    <t>-4.078761322236707</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>-7.1</t>
-  </si>
-  <si>
-    <t>16.9</t>
-  </si>
-  <si>
-    <t>-5.754936528232378</t>
-  </si>
-  <si>
-    <t>-6.733792714639216</t>
+    <t>-1.7999999999999998</t>
+  </si>
+  <si>
+    <t>-9.8</t>
+  </si>
+  <si>
+    <t>-24.872987065075712</t>
+  </si>
+  <si>
+    <t>-27.41552525151242</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -789,7 +789,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>2.4899999999999998</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="3" spans="1:1">
